--- a/Test/testcase/PersonAPITestCase.xlsx
+++ b/Test/testcase/PersonAPITestCase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目\DemoAPI-master\AutoTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目\github\AutoApiTest\Test\testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="47">
   <si>
     <t>module</t>
   </si>
@@ -205,6 +205,10 @@
   </si>
   <si>
     <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:5000/api/person/10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -657,7 +661,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD41"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -837,7 +841,7 @@
         <v>35</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>26</v>
@@ -908,9 +912,10 @@
     <hyperlink ref="D3" r:id="rId2"/>
     <hyperlink ref="D4:D6" r:id="rId3" display="http://127.0.0.1:5000/api/person/"/>
     <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/Test/testcase/PersonAPITestCase.xlsx
+++ b/Test/testcase/PersonAPITestCase.xlsx
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$2</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="48">
   <si>
     <t>module</t>
   </si>
@@ -209,6 +209,14 @@
   </si>
   <si>
     <t>http://127.0.0.1:5000/api/person/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "id": 10,
+  "name": "dengwei",
+  "age": 1000
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -660,23 +668,23 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="39.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="38.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="12.125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.75" style="5" customWidth="1"/>
+    <col min="10" max="10" width="8" style="5" customWidth="1"/>
+    <col min="11" max="11" width="12.25" style="2" customWidth="1"/>
     <col min="13" max="13" width="10.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -753,14 +761,10 @@
       <c r="K2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="8"/>
     </row>
-    <row r="3" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -788,14 +792,10 @@
       <c r="K3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -823,14 +823,10 @@
       <c r="K4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -851,7 +847,7 @@
         <v>38</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>45</v>
@@ -862,14 +858,10 @@
       <c r="K5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -897,12 +889,8 @@
       <c r="K6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M2"/>
